--- a/assets/Helper_Inverse_Problem.xlsx
+++ b/assets/Helper_Inverse_Problem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Task Stage\Task - covidsims\covidsims\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1B61BA-FDFB-4D58-B80F-2FD494B23F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29EE4D1-E6D3-49AB-A3A1-B83B47797BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" activeTab="1" xr2:uid="{16F8CB01-C540-4270-883E-601175A84A06}"/>
+    <workbookView xWindow="13965" yWindow="1110" windowWidth="18600" windowHeight="10530" activeTab="1" xr2:uid="{16F8CB01-C540-4270-883E-601175A84A06}"/>
   </bookViews>
   <sheets>
     <sheet name="inverse" sheetId="2" r:id="rId1"/>
@@ -263,7 +263,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -276,7 +276,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2800"/>
               <a:t>SIRD Model</a:t>
             </a:r>
           </a:p>
@@ -295,7 +295,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -14908,7 +14908,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-16A6-42B2-96F5-4D595636853F}"/>
                   </c:ext>
@@ -16035,7 +16035,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-16A6-42B2-96F5-4D595636853F}"/>
                   </c:ext>
@@ -25144,7 +25144,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -25186,7 +25186,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -25812,8 +25812,8 @@
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
@@ -50513,7 +50513,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
